--- a/Code/Results/Cases/Case_7_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_22/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.210193959642027</v>
+        <v>2.210798587548538</v>
       </c>
       <c r="C2">
-        <v>0.4661156159099562</v>
+        <v>0.3044689698680827</v>
       </c>
       <c r="D2">
-        <v>0.004915857261717171</v>
+        <v>0.04802832400469725</v>
       </c>
       <c r="E2">
-        <v>0.0255992522057209</v>
+        <v>0.04255541787311046</v>
       </c>
       <c r="F2">
-        <v>2.025888657336026</v>
+        <v>0.8836650249646851</v>
       </c>
       <c r="G2">
-        <v>0.0008332373017716086</v>
+        <v>0.0008131853156390314</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.05807184227982809</v>
+        <v>0.06273080667121311</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1729288140741332</v>
+        <v>0.1709586429108967</v>
       </c>
       <c r="M2">
-        <v>0.5309315450934236</v>
+        <v>0.3921137384684457</v>
       </c>
       <c r="N2">
-        <v>1.260484434737087</v>
+        <v>0.9143471700325883</v>
       </c>
       <c r="O2">
-        <v>1.49524099726365</v>
+        <v>2.364150782601286</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.825672308661581</v>
+        <v>1.929675197180643</v>
       </c>
       <c r="C3">
-        <v>0.4028286598695274</v>
+        <v>0.2749065955564873</v>
       </c>
       <c r="D3">
-        <v>0.004327380943444759</v>
+        <v>0.04574264938129957</v>
       </c>
       <c r="E3">
-        <v>0.0254831291047386</v>
+        <v>0.04336212821655572</v>
       </c>
       <c r="F3">
-        <v>1.925415879225554</v>
+        <v>0.8533032122336976</v>
       </c>
       <c r="G3">
-        <v>0.0008407534007595565</v>
+        <v>0.0008175000315828779</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.05914228809980271</v>
+        <v>0.06450643802505196</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1590144380641334</v>
+        <v>0.1562246881334701</v>
       </c>
       <c r="M3">
-        <v>0.4710439569832019</v>
+        <v>0.3447303508936841</v>
       </c>
       <c r="N3">
-        <v>1.322876559493679</v>
+        <v>0.9516663581258875</v>
       </c>
       <c r="O3">
-        <v>1.41840209663394</v>
+        <v>2.285286214414441</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.593275200280004</v>
+        <v>1.757789356329994</v>
       </c>
       <c r="C4">
-        <v>0.3643476140749442</v>
+        <v>0.2567212556698166</v>
       </c>
       <c r="D4">
-        <v>0.003982624133022306</v>
+        <v>0.04437125574754575</v>
       </c>
       <c r="E4">
-        <v>0.0254178077074334</v>
+        <v>0.04389240232326275</v>
       </c>
       <c r="F4">
-        <v>1.867512688021165</v>
+        <v>0.8362172049970695</v>
       </c>
       <c r="G4">
-        <v>0.0008455063273665183</v>
+        <v>0.000820240943211438</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.05982047531680923</v>
+        <v>0.06564075015106718</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1506725168459084</v>
+        <v>0.1473003446067622</v>
       </c>
       <c r="M4">
-        <v>0.434896795544141</v>
+        <v>0.3158061949145292</v>
       </c>
       <c r="N4">
-        <v>1.362891131832914</v>
+        <v>0.9757373030135561</v>
       </c>
       <c r="O4">
-        <v>1.374147794160052</v>
+        <v>2.241378105648607</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.499402439485607</v>
+        <v>1.687900077753909</v>
       </c>
       <c r="C5">
-        <v>0.34874515190333</v>
+        <v>0.2493001030156137</v>
       </c>
       <c r="D5">
-        <v>0.003845587006675366</v>
+        <v>0.04382018670232668</v>
       </c>
       <c r="E5">
-        <v>0.02539256974581416</v>
+        <v>0.04411718289488764</v>
       </c>
       <c r="F5">
-        <v>1.844804522232323</v>
+        <v>0.8296277716394229</v>
       </c>
       <c r="G5">
-        <v>0.0008474790222985042</v>
+        <v>0.0008213813241934323</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06010214461259933</v>
+        <v>0.06611400930405686</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.147320096487654</v>
+        <v>0.1436925437785419</v>
       </c>
       <c r="M5">
-        <v>0.4203078991430687</v>
+        <v>0.3040572223852891</v>
       </c>
       <c r="N5">
-        <v>1.37961301919232</v>
+        <v>0.9858304269013409</v>
       </c>
       <c r="O5">
-        <v>1.356797997194263</v>
+        <v>2.224565908575642</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.48386235040897</v>
+        <v>1.676303662083768</v>
       </c>
       <c r="C6">
-        <v>0.3461586932178875</v>
+        <v>0.2480671388916136</v>
       </c>
       <c r="D6">
-        <v>0.003823021108050106</v>
+        <v>0.04372914479980494</v>
       </c>
       <c r="E6">
-        <v>0.02538845905684273</v>
+        <v>0.04415502954627648</v>
       </c>
       <c r="F6">
-        <v>1.841085672967111</v>
+        <v>0.8285556328944992</v>
       </c>
       <c r="G6">
-        <v>0.0008478087831326198</v>
+        <v>0.0008215721102331496</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06014923696142827</v>
+        <v>0.06619325726444325</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1467661638996702</v>
+        <v>0.1430951676664236</v>
       </c>
       <c r="M6">
-        <v>0.4178935285872143</v>
+        <v>0.3021084671355112</v>
       </c>
       <c r="N6">
-        <v>1.382414409664459</v>
+        <v>0.9875233421619143</v>
       </c>
       <c r="O6">
-        <v>1.353956968579595</v>
+        <v>2.221837982383789</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.592005961356506</v>
+        <v>1.756846209282031</v>
       </c>
       <c r="C7">
-        <v>0.3641368947520789</v>
+        <v>0.2566212163213635</v>
       </c>
       <c r="D7">
-        <v>0.003980762911580449</v>
+        <v>0.04436379265774448</v>
       </c>
       <c r="E7">
-        <v>0.02541746190089866</v>
+        <v>0.04389539873663084</v>
       </c>
       <c r="F7">
-        <v>1.86720292481192</v>
+        <v>0.836126849556365</v>
       </c>
       <c r="G7">
-        <v>0.0008455327852426213</v>
+        <v>0.0008202562274582987</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0598242524866861</v>
+        <v>0.06564708816058173</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1506271194126043</v>
+        <v>0.1472515737027109</v>
       </c>
       <c r="M7">
-        <v>0.4346994919483791</v>
+        <v>0.3156475969681907</v>
       </c>
       <c r="N7">
-        <v>1.363114982993324</v>
+        <v>0.9758722812506591</v>
       </c>
       <c r="O7">
-        <v>1.373911103645582</v>
+        <v>2.241147064934921</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.076780419070303</v>
+        <v>2.113700110885929</v>
       </c>
       <c r="C8">
-        <v>0.4442058966046432</v>
+        <v>0.2942816816922829</v>
       </c>
       <c r="D8">
-        <v>0.004709061511557699</v>
+        <v>0.047233411628266</v>
       </c>
       <c r="E8">
-        <v>0.02555789462415015</v>
+        <v>0.04282625678492336</v>
       </c>
       <c r="F8">
-        <v>1.990419193845156</v>
+        <v>0.8728620963907616</v>
       </c>
       <c r="G8">
-        <v>0.0008358009156114995</v>
+        <v>0.000814654245651576</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.05843661292797631</v>
+        <v>0.06333385965095806</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1680869841979842</v>
+        <v>0.1658518427924918</v>
       </c>
       <c r="M8">
-        <v>0.5101430389712291</v>
+        <v>0.3757378230888762</v>
       </c>
       <c r="N8">
-        <v>1.281634973096835</v>
+        <v>0.9269704917511845</v>
       </c>
       <c r="O8">
-        <v>1.468107730756898</v>
+        <v>2.33598742064396</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.061724216664402</v>
+        <v>2.820559878418464</v>
       </c>
       <c r="C9">
-        <v>0.605012342663855</v>
+        <v>0.3679626706998249</v>
       </c>
       <c r="D9">
-        <v>0.006304659208828944</v>
+        <v>0.05312792538442324</v>
       </c>
       <c r="E9">
-        <v>0.02588693793394681</v>
+        <v>0.04101162753964083</v>
       </c>
       <c r="F9">
-        <v>2.26527856762371</v>
+        <v>0.9581134420231052</v>
       </c>
       <c r="G9">
-        <v>0.0008177562168587765</v>
+        <v>0.0008043774792714136</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05587953893836906</v>
+        <v>0.05915012907690764</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2041085832716405</v>
+        <v>0.2033872180457834</v>
       </c>
       <c r="M9">
-        <v>0.6638104343433824</v>
+        <v>0.4951526846847827</v>
       </c>
       <c r="N9">
-        <v>1.13603317727442</v>
+        <v>0.8405777312246876</v>
       </c>
       <c r="O9">
-        <v>1.678567649311972</v>
+        <v>2.560408427806465</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>4.813891569216423</v>
+        <v>3.346203352598934</v>
       </c>
       <c r="C10">
-        <v>0.7267022529097744</v>
+        <v>0.4221438892856497</v>
       </c>
       <c r="D10">
-        <v>0.007635681222903479</v>
+        <v>0.05764147758895888</v>
       </c>
       <c r="E10">
-        <v>0.02617129126204221</v>
+        <v>0.0398570194525929</v>
       </c>
       <c r="F10">
-        <v>2.492359686708781</v>
+        <v>1.030084386638336</v>
       </c>
       <c r="G10">
-        <v>0.0008050476988693137</v>
+        <v>0.0007972317882031809</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05409783491933284</v>
+        <v>0.05629519992098109</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2319433815214325</v>
+        <v>0.2317458193385846</v>
       </c>
       <c r="M10">
-        <v>0.7813878192165546</v>
+        <v>0.5842036547023355</v>
       </c>
       <c r="N10">
-        <v>1.038691772822872</v>
+        <v>0.7833732283515715</v>
       </c>
       <c r="O10">
-        <v>1.852772813854557</v>
+        <v>2.752596486612447</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.164180904084844</v>
+        <v>3.587185765420543</v>
       </c>
       <c r="C11">
-        <v>0.7831440708781372</v>
+        <v>0.4468398900318391</v>
       </c>
       <c r="D11">
-        <v>0.008290484719647218</v>
+        <v>0.05973931867534787</v>
       </c>
       <c r="E11">
-        <v>0.02631251633313658</v>
+        <v>0.03937211424494258</v>
       </c>
       <c r="F11">
-        <v>2.602350846276579</v>
+        <v>1.065158512123361</v>
       </c>
       <c r="G11">
-        <v>0.0007993644255898688</v>
+        <v>0.0007940624578113287</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05330761086102509</v>
+        <v>0.05504486195161817</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2449744912323268</v>
+        <v>0.2448489171595725</v>
       </c>
       <c r="M11">
-        <v>0.8361912422614992</v>
+        <v>0.6250865787776192</v>
       </c>
       <c r="N11">
-        <v>0.9967498025671944</v>
+        <v>0.7588233822261188</v>
       </c>
       <c r="O11">
-        <v>1.937252916123143</v>
+        <v>2.846880786475452</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.298173655632638</v>
+        <v>3.67875011505464</v>
       </c>
       <c r="C12">
-        <v>0.8047024265460152</v>
+        <v>0.4562019017207319</v>
       </c>
       <c r="D12">
-        <v>0.008546979041466507</v>
+        <v>0.06054055313401108</v>
       </c>
       <c r="E12">
-        <v>0.02636795864015484</v>
+        <v>0.03919443459098115</v>
       </c>
       <c r="F12">
-        <v>2.645079159705929</v>
+        <v>1.078803134882961</v>
       </c>
       <c r="G12">
-        <v>0.0007972244469682709</v>
+        <v>0.0007928734411180134</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.053011225968147</v>
+        <v>0.054578435738871</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2499686960218384</v>
+        <v>0.2498427093485418</v>
       </c>
       <c r="M12">
-        <v>0.8571611470301335</v>
+        <v>0.6406290561105052</v>
       </c>
       <c r="N12">
-        <v>0.98122776472146</v>
+        <v>0.7497490412611896</v>
       </c>
       <c r="O12">
-        <v>1.970087982337859</v>
+        <v>2.883652643098713</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.269253024044474</v>
+        <v>3.659015633160323</v>
       </c>
       <c r="C13">
-        <v>0.8000507176200529</v>
+        <v>0.4541851191325748</v>
       </c>
       <c r="D13">
-        <v>0.008491333677692836</v>
+        <v>0.06036768237478896</v>
       </c>
       <c r="E13">
-        <v>0.02635592633390615</v>
+        <v>0.03923243436484913</v>
       </c>
       <c r="F13">
-        <v>2.635826981399077</v>
+        <v>1.075847931503432</v>
       </c>
       <c r="G13">
-        <v>0.0007976848219331066</v>
+        <v>0.0007931290308009623</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05307493177070288</v>
+        <v>0.05467857391386666</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2488903414650565</v>
+        <v>0.2487657398429377</v>
       </c>
       <c r="M13">
-        <v>0.8526347759891522</v>
+        <v>0.6372788695956899</v>
       </c>
       <c r="N13">
-        <v>0.9845542671493561</v>
+        <v>0.7516933098448675</v>
       </c>
       <c r="O13">
-        <v>1.962977240387886</v>
+        <v>2.875684269684626</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.175176509021583</v>
+        <v>3.594712367219188</v>
       </c>
       <c r="C14">
-        <v>0.7849138018014798</v>
+        <v>0.4476098853564849</v>
       </c>
       <c r="D14">
-        <v>0.008311406633617402</v>
+        <v>0.05980509740026463</v>
       </c>
       <c r="E14">
-        <v>0.02631703665167473</v>
+        <v>0.03935737646299486</v>
       </c>
       <c r="F14">
-        <v>2.605843840141915</v>
+        <v>1.066273629570148</v>
       </c>
       <c r="G14">
-        <v>0.0007991881363540454</v>
+        <v>0.0007939644167151691</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.05328317023014861</v>
+        <v>0.0550063469553459</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2453841327279775</v>
+        <v>0.2452591026959823</v>
       </c>
       <c r="M14">
-        <v>0.8379119296045587</v>
+        <v>0.6263640011480831</v>
       </c>
       <c r="N14">
-        <v>0.9954654226516624</v>
+        <v>0.7580723165072811</v>
       </c>
       <c r="O14">
-        <v>1.939936793317301</v>
+        <v>2.849884122563822</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.117732794887843</v>
+        <v>3.555366355365948</v>
       </c>
       <c r="C15">
-        <v>0.775667027037656</v>
+        <v>0.4435837883293345</v>
       </c>
       <c r="D15">
-        <v>0.008202353814573904</v>
+        <v>0.05946139982233944</v>
       </c>
       <c r="E15">
-        <v>0.02629347954575989</v>
+        <v>0.03943468553142981</v>
       </c>
       <c r="F15">
-        <v>2.587622195100479</v>
+        <v>1.060457181623832</v>
       </c>
       <c r="G15">
-        <v>0.0008001104821100362</v>
+        <v>0.0007944775485358449</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05341109231484165</v>
+        <v>0.05520803829942533</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.2432444480408265</v>
+        <v>0.2431154313985502</v>
       </c>
       <c r="M15">
-        <v>0.8289228998753444</v>
+        <v>0.6196865005880881</v>
       </c>
       <c r="N15">
-        <v>1.002196528009449</v>
+        <v>0.7620088931247864</v>
       </c>
       <c r="O15">
-        <v>1.925936705278829</v>
+        <v>2.834222478470252</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>4.791177551909243</v>
+        <v>3.33049557329349</v>
       </c>
       <c r="C16">
-        <v>0.7230378827439665</v>
+        <v>0.4205311921720636</v>
       </c>
       <c r="D16">
-        <v>0.00759399950214501</v>
+        <v>0.05750531092857614</v>
       </c>
       <c r="E16">
-        <v>0.02616232183126588</v>
+        <v>0.0398895328190525</v>
       </c>
       <c r="F16">
-        <v>2.485315677165701</v>
+        <v>1.027841457481387</v>
       </c>
       <c r="G16">
-        <v>0.0008054209241851987</v>
+        <v>0.0007974405009276447</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.05414988097719764</v>
+        <v>0.0563778938130981</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2310997357889164</v>
+        <v>0.2308938127729476</v>
       </c>
       <c r="M16">
-        <v>0.7778350820965869</v>
+        <v>0.5815399835345119</v>
       </c>
       <c r="N16">
-        <v>1.041481847789242</v>
+        <v>0.7850081248715668</v>
       </c>
       <c r="O16">
-        <v>1.847364758401454</v>
+        <v>2.746579675506126</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.593047612371151</v>
+        <v>3.193050670333264</v>
       </c>
       <c r="C17">
-        <v>0.6910490476421671</v>
+        <v>0.4064038130310337</v>
       </c>
       <c r="D17">
-        <v>0.007234390525423073</v>
+        <v>0.05631702238462566</v>
       </c>
       <c r="E17">
-        <v>0.02608507239492219</v>
+        <v>0.04017899641965084</v>
       </c>
       <c r="F17">
-        <v>2.42434545507534</v>
+        <v>1.008449328681664</v>
       </c>
       <c r="G17">
-        <v>0.0008087024755614181</v>
+        <v>0.0007992786153011577</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.0546082570652997</v>
+        <v>0.05710801848893921</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.223748282422207</v>
+        <v>0.2234500683606768</v>
       </c>
       <c r="M17">
-        <v>0.7468503931360218</v>
+        <v>0.5582389606021891</v>
       </c>
       <c r="N17">
-        <v>1.066197538713276</v>
+        <v>0.7995017786214618</v>
       </c>
       <c r="O17">
-        <v>1.800565902943291</v>
+        <v>2.694626676209822</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.479841518716569</v>
+        <v>3.114168835597638</v>
       </c>
       <c r="C18">
-        <v>0.6727500605055923</v>
+        <v>0.3982824958340245</v>
       </c>
       <c r="D18">
-        <v>0.007032097414567673</v>
+        <v>0.05563772197761807</v>
       </c>
       <c r="E18">
-        <v>0.02604174056863773</v>
+        <v>0.04034927534172272</v>
       </c>
       <c r="F18">
-        <v>2.389899177141629</v>
+        <v>0.9975134561507275</v>
       </c>
       <c r="G18">
-        <v>0.0008105992777837121</v>
+        <v>0.0008003435353269041</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05487381584822693</v>
+        <v>0.05753251518548241</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2195542130717598</v>
+        <v>0.2191875164576231</v>
       </c>
       <c r="M18">
-        <v>0.72915094355902</v>
+        <v>0.5448714835952799</v>
       </c>
       <c r="N18">
-        <v>1.080631923892597</v>
+        <v>0.8079761072500773</v>
       </c>
       <c r="O18">
-        <v>1.774134958391244</v>
+        <v>2.665384821760938</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.441636117583357</v>
+        <v>3.087489276171198</v>
       </c>
       <c r="C19">
-        <v>0.6665707044216731</v>
+        <v>0.3955334170534002</v>
       </c>
       <c r="D19">
-        <v>0.006964344148514989</v>
+        <v>0.05540842693121562</v>
       </c>
       <c r="E19">
-        <v>0.02602725086294022</v>
+        <v>0.04040757505941883</v>
       </c>
       <c r="F19">
-        <v>2.378339822234707</v>
+        <v>0.9938473973779907</v>
       </c>
       <c r="G19">
-        <v>0.000811243162106803</v>
+        <v>0.0008007054350646587</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05496405980944719</v>
+        <v>0.05767702091997418</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2181398746242564</v>
+        <v>0.2177474526631755</v>
       </c>
       <c r="M19">
-        <v>0.7231783946904429</v>
+        <v>0.5403512230672973</v>
       </c>
       <c r="N19">
-        <v>1.085556007953947</v>
+        <v>0.8108687599024265</v>
       </c>
       <c r="O19">
-        <v>1.765266823671141</v>
+        <v>2.655591561466565</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.614059725931952</v>
+        <v>3.207663736857171</v>
       </c>
       <c r="C20">
-        <v>0.6944437488594701</v>
+        <v>0.4079072214924224</v>
       </c>
       <c r="D20">
-        <v>0.007272191353012047</v>
+        <v>0.05644308307279999</v>
       </c>
       <c r="E20">
-        <v>0.02609318014281792</v>
+        <v>0.04014778955947129</v>
       </c>
       <c r="F20">
-        <v>2.430770653841805</v>
+        <v>1.010490904549457</v>
       </c>
       <c r="G20">
-        <v>0.0008083521952854111</v>
+        <v>0.000799082153371544</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05455926458492133</v>
+        <v>0.05702982408813462</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2245272628367019</v>
+        <v>0.2242404927103223</v>
       </c>
       <c r="M20">
-        <v>0.7501359360107571</v>
+        <v>0.5607157562245106</v>
       </c>
       <c r="N20">
-        <v>1.06354372368272</v>
+        <v>0.7979445529836511</v>
       </c>
       <c r="O20">
-        <v>1.805496735987788</v>
+        <v>2.700090331921814</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.202771023917023</v>
+        <v>3.613591048251294</v>
       </c>
       <c r="C21">
-        <v>0.789354609208317</v>
+        <v>0.4495408881900573</v>
       </c>
       <c r="D21">
-        <v>0.008364011441261532</v>
+        <v>0.05997015349297641</v>
       </c>
       <c r="E21">
-        <v>0.02632840397595793</v>
+        <v>0.03932051544786219</v>
       </c>
       <c r="F21">
-        <v>2.614620404334772</v>
+        <v>1.069075761282832</v>
       </c>
       <c r="G21">
-        <v>0.0007987462630574212</v>
+        <v>0.000793718745760781</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.0532219285521931</v>
+        <v>0.05490987998333319</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2464123176723092</v>
+        <v>0.2462881970440094</v>
       </c>
       <c r="M21">
-        <v>0.8422302601477085</v>
+        <v>0.629568245756154</v>
       </c>
       <c r="N21">
-        <v>0.9922505625627309</v>
+        <v>0.7561925322522072</v>
       </c>
       <c r="O21">
-        <v>1.946680634396714</v>
+        <v>2.857432567243762</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.595469440191891</v>
+        <v>3.880713829148647</v>
       </c>
       <c r="C22">
-        <v>0.852479114729789</v>
+        <v>0.4768118621219912</v>
       </c>
       <c r="D22">
-        <v>0.009128145720016079</v>
+        <v>0.06231530926874029</v>
       </c>
       <c r="E22">
-        <v>0.02649372820939888</v>
+        <v>0.03881455997784311</v>
       </c>
       <c r="F22">
-        <v>2.741117739282231</v>
+        <v>1.109493149231383</v>
       </c>
       <c r="G22">
-        <v>0.0007925380242164201</v>
+        <v>0.0007902781008006094</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05236451574859302</v>
+        <v>0.05356551108485252</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.2610664808773606</v>
+        <v>0.2608852294935531</v>
       </c>
       <c r="M22">
-        <v>0.9036994484514054</v>
+        <v>0.6749267089205446</v>
       </c>
       <c r="N22">
-        <v>0.9477707608570896</v>
+        <v>0.7302053864955056</v>
       </c>
       <c r="O22">
-        <v>2.043923992891266</v>
+        <v>2.966535177280292</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.385088253050185</v>
+        <v>3.737963773899025</v>
       </c>
       <c r="C23">
-        <v>0.818677666070073</v>
+        <v>0.4622501307793812</v>
       </c>
       <c r="D23">
-        <v>0.008715154892598775</v>
+        <v>0.06105984943501852</v>
       </c>
       <c r="E23">
-        <v>0.02640433600895609</v>
+        <v>0.03908137159121061</v>
       </c>
       <c r="F23">
-        <v>2.672982087872128</v>
+        <v>1.087717348661258</v>
       </c>
       <c r="G23">
-        <v>0.0007958457831181438</v>
+        <v>0.0007921087127172877</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05282063447312746</v>
+        <v>0.05427923024804837</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2532107999800246</v>
+        <v>0.2530763755750201</v>
       </c>
       <c r="M23">
-        <v>0.8707650698296376</v>
+        <v>0.6506825863660382</v>
       </c>
       <c r="N23">
-        <v>0.9713082869433549</v>
+        <v>0.7439526300174464</v>
       </c>
       <c r="O23">
-        <v>1.991535375200513</v>
+        <v>2.907702490044187</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.604557977700779</v>
+        <v>3.201056745628932</v>
       </c>
       <c r="C24">
-        <v>0.6929087205968187</v>
+        <v>0.4072275285787725</v>
       </c>
       <c r="D24">
-        <v>0.007255087841697261</v>
+        <v>0.05638607903576798</v>
       </c>
       <c r="E24">
-        <v>0.02608951128515091</v>
+        <v>0.0401618861610622</v>
       </c>
       <c r="F24">
-        <v>2.427863941468559</v>
+        <v>1.009567246929862</v>
       </c>
       <c r="G24">
-        <v>0.0008085105250697525</v>
+        <v>0.0007991709483543536</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05458140775079245</v>
+        <v>0.05706516102495485</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2241749854239998</v>
+        <v>0.2238830892567023</v>
       </c>
       <c r="M24">
-        <v>0.7486501888555992</v>
+        <v>0.5595959084155169</v>
       </c>
       <c r="N24">
-        <v>1.064742814406401</v>
+        <v>0.7986481340007572</v>
       </c>
       <c r="O24">
-        <v>1.803266035707026</v>
+        <v>2.697618267562746</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.790856801432426</v>
+        <v>2.628380226898628</v>
       </c>
       <c r="C25">
-        <v>0.5609841813823095</v>
+        <v>0.3480333384989933</v>
       </c>
       <c r="D25">
-        <v>0.00584965770448953</v>
+        <v>0.0515027198944793</v>
       </c>
       <c r="E25">
-        <v>0.02579123491770519</v>
+        <v>0.04147167745633684</v>
       </c>
       <c r="F25">
-        <v>2.186888771512884</v>
+        <v>0.9335087940859523</v>
       </c>
       <c r="G25">
-        <v>0.0008225348001861255</v>
+        <v>0.0008070844833060856</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.05655403115014845</v>
+        <v>0.06024380556611053</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1941453542409235</v>
+        <v>0.1931060032433791</v>
       </c>
       <c r="M25">
-        <v>0.6215108530935751</v>
+        <v>0.4626436961945544</v>
       </c>
       <c r="N25">
-        <v>1.173808438594826</v>
+        <v>0.8628847434586078</v>
       </c>
       <c r="O25">
-        <v>1.618498646732192</v>
+        <v>2.495196959795493</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.210798587548538</v>
+        <v>1.890788476579274</v>
       </c>
       <c r="C2">
-        <v>0.3044689698680827</v>
+        <v>0.3108879363779806</v>
       </c>
       <c r="D2">
-        <v>0.04802832400469725</v>
+        <v>0.08709847825992512</v>
       </c>
       <c r="E2">
-        <v>0.04255541787311046</v>
+        <v>0.06025112973471369</v>
       </c>
       <c r="F2">
-        <v>0.8836650249646851</v>
+        <v>0.5879441529592881</v>
       </c>
       <c r="G2">
-        <v>0.0008131853156390314</v>
+        <v>0.3678091000095947</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.0009475137448032855</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.06273080667121311</v>
+        <v>0.3104943610289865</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2924718419866714</v>
       </c>
       <c r="L2">
-        <v>0.1709586429108967</v>
+        <v>0.07881414567535394</v>
       </c>
       <c r="M2">
-        <v>0.3921137384684457</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9143471700325883</v>
+        <v>0.2085827796676583</v>
       </c>
       <c r="O2">
-        <v>2.364150782601286</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.3556379850910076</v>
+      </c>
+      <c r="P2">
+        <v>0.9003832306666482</v>
+      </c>
+      <c r="Q2">
+        <v>1.378168971363252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.929675197180643</v>
+        <v>1.647671499176596</v>
       </c>
       <c r="C3">
-        <v>0.2749065955564873</v>
+        <v>0.2830328486142406</v>
       </c>
       <c r="D3">
-        <v>0.04574264938129957</v>
+        <v>0.08237183890037159</v>
       </c>
       <c r="E3">
-        <v>0.04336212821655572</v>
+        <v>0.05929219319604329</v>
       </c>
       <c r="F3">
-        <v>0.8533032122336976</v>
+        <v>0.5666342154821677</v>
       </c>
       <c r="G3">
-        <v>0.0008175000315828779</v>
+        <v>0.3501628253106972</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.001855468417086614</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.06450643802505196</v>
+        <v>0.3065513559824424</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.2951014325815251</v>
       </c>
       <c r="L3">
-        <v>0.1562246881334701</v>
+        <v>0.07720915440220288</v>
       </c>
       <c r="M3">
-        <v>0.3447303508936841</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9516663581258875</v>
+        <v>0.1893090868373051</v>
       </c>
       <c r="O3">
-        <v>2.285286214414441</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.3114318345151048</v>
+      </c>
+      <c r="P3">
+        <v>0.9072502965613012</v>
+      </c>
+      <c r="Q3">
+        <v>1.332210839578678</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.757789356329994</v>
+        <v>1.49820118458166</v>
       </c>
       <c r="C4">
-        <v>0.2567212556698166</v>
+        <v>0.2658582314143274</v>
       </c>
       <c r="D4">
-        <v>0.04437125574754575</v>
+        <v>0.07949465389449273</v>
       </c>
       <c r="E4">
-        <v>0.04389240232326275</v>
+        <v>0.0586973677776097</v>
       </c>
       <c r="F4">
-        <v>0.8362172049970695</v>
+        <v>0.55423584673931</v>
       </c>
       <c r="G4">
-        <v>0.000820240943211438</v>
+        <v>0.3398757400015953</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.00259051243068037</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.06564075015106718</v>
+        <v>0.3044897419953969</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.2971509848040341</v>
       </c>
       <c r="L4">
-        <v>0.1473003446067622</v>
+        <v>0.07619217700951353</v>
       </c>
       <c r="M4">
-        <v>0.3158061949145292</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9757373030135561</v>
+        <v>0.1774643963780349</v>
       </c>
       <c r="O4">
-        <v>2.241378105648607</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.2842681887671645</v>
+      </c>
+      <c r="P4">
+        <v>0.9121453220881719</v>
+      </c>
+      <c r="Q4">
+        <v>1.30589784446569</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.687900077753909</v>
+        <v>1.437235027428983</v>
       </c>
       <c r="C5">
-        <v>0.2493001030156137</v>
+        <v>0.2588408009327878</v>
       </c>
       <c r="D5">
-        <v>0.04382018670232668</v>
+        <v>0.07832818473637815</v>
       </c>
       <c r="E5">
-        <v>0.04411718289488764</v>
+        <v>0.05845328931522253</v>
       </c>
       <c r="F5">
-        <v>0.8296277716394229</v>
+        <v>0.5493494049088383</v>
       </c>
       <c r="G5">
-        <v>0.0008213813241934323</v>
+        <v>0.335815132038455</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.002932685130361989</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.06611400930405686</v>
+        <v>0.3037372218650773</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.2980922055988593</v>
       </c>
       <c r="L5">
-        <v>0.1436925437785419</v>
+        <v>0.07576960827265378</v>
       </c>
       <c r="M5">
-        <v>0.3040572223852891</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.9858304269013409</v>
+        <v>0.1726341230799662</v>
       </c>
       <c r="O5">
-        <v>2.224565908575642</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.2731922444086656</v>
+      </c>
+      <c r="P5">
+        <v>0.9143068660363483</v>
+      </c>
+      <c r="Q5">
+        <v>1.2956350959996</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.676303662083768</v>
+        <v>1.427108089722168</v>
       </c>
       <c r="C6">
-        <v>0.2480671388916136</v>
+        <v>0.2576744183586044</v>
       </c>
       <c r="D6">
-        <v>0.04372914479980494</v>
+        <v>0.07813484839795848</v>
       </c>
       <c r="E6">
-        <v>0.04415502954627648</v>
+        <v>0.05841265397472561</v>
       </c>
       <c r="F6">
-        <v>0.8285556328944992</v>
+        <v>0.5485478548299554</v>
       </c>
       <c r="G6">
-        <v>0.0008215721102331496</v>
+        <v>0.3351486319144925</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.002992020059472023</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06619325726444325</v>
+        <v>0.3036174785270873</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.2982548012102839</v>
       </c>
       <c r="L6">
-        <v>0.1430951676664236</v>
+        <v>0.07569894303288205</v>
       </c>
       <c r="M6">
-        <v>0.3021084671355112</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9875233421619143</v>
+        <v>0.1718318276887416</v>
       </c>
       <c r="O6">
-        <v>2.221837982383789</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.2713526615393285</v>
+      </c>
+      <c r="P6">
+        <v>0.914675752475361</v>
+      </c>
+      <c r="Q6">
+        <v>1.293958212077243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.756846209282031</v>
+        <v>1.497379207970539</v>
       </c>
       <c r="C7">
-        <v>0.2566212163213635</v>
+        <v>0.2657636681727098</v>
       </c>
       <c r="D7">
-        <v>0.04436379265774448</v>
+        <v>0.07947889851702428</v>
       </c>
       <c r="E7">
-        <v>0.04389539873663084</v>
+        <v>0.05869408307469648</v>
       </c>
       <c r="F7">
-        <v>0.836126849556365</v>
+        <v>0.5541692827988527</v>
       </c>
       <c r="G7">
-        <v>0.0008202562274582987</v>
+        <v>0.3398204530684907</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.002594957074061488</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.06564708816058173</v>
+        <v>0.3044792421234988</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.2971632535617417</v>
       </c>
       <c r="L7">
-        <v>0.1472515737027109</v>
+        <v>0.07618651135141352</v>
       </c>
       <c r="M7">
-        <v>0.3156475969681907</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.9758722812506591</v>
+        <v>0.1773992686965187</v>
       </c>
       <c r="O7">
-        <v>2.241147064934921</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.2841188428172785</v>
+      </c>
+      <c r="P7">
+        <v>0.9121738031025757</v>
+      </c>
+      <c r="Q7">
+        <v>1.305757599647222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.113700110885929</v>
+        <v>1.806998108663407</v>
       </c>
       <c r="C8">
-        <v>0.2942816816922829</v>
+        <v>0.301297913753146</v>
       </c>
       <c r="D8">
-        <v>0.047233411628266</v>
+        <v>0.0854633738524484</v>
       </c>
       <c r="E8">
-        <v>0.04282625678492336</v>
+        <v>0.05992163937599493</v>
       </c>
       <c r="F8">
-        <v>0.8728620963907616</v>
+        <v>0.5804501026322129</v>
       </c>
       <c r="G8">
-        <v>0.000814654245651576</v>
+        <v>0.3616071071866713</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.001222496158186814</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06333385965095806</v>
+        <v>0.3090585152650647</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.2932861846300128</v>
       </c>
       <c r="L8">
-        <v>0.1658518427924918</v>
+        <v>0.07826714856633288</v>
       </c>
       <c r="M8">
-        <v>0.3757378230888762</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.9269704917511845</v>
+        <v>0.2019388983416093</v>
       </c>
       <c r="O8">
-        <v>2.33598742064396</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.3403992270039993</v>
+      </c>
+      <c r="P8">
+        <v>0.9026077661816103</v>
+      </c>
+      <c r="Q8">
+        <v>1.361915366323657</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.820559878418464</v>
+        <v>2.412961485251515</v>
       </c>
       <c r="C9">
-        <v>0.3679626706998249</v>
+        <v>0.3704495029094801</v>
       </c>
       <c r="D9">
-        <v>0.05312792538442324</v>
+        <v>0.0974109599046642</v>
       </c>
       <c r="E9">
-        <v>0.04101162753964083</v>
+        <v>0.06228883196544466</v>
       </c>
       <c r="F9">
-        <v>0.9581134420231052</v>
+        <v>0.6377381713656831</v>
       </c>
       <c r="G9">
-        <v>0.0008043774792714136</v>
+        <v>0.4089742989471148</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>3.323703079560758E-05</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.05915012907690764</v>
+        <v>0.3210210886561242</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.2892918748691393</v>
       </c>
       <c r="L9">
-        <v>0.2033872180457834</v>
+        <v>0.08210771612341183</v>
       </c>
       <c r="M9">
-        <v>0.4951526846847827</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8405777312246876</v>
+        <v>0.2500179041663984</v>
       </c>
       <c r="O9">
-        <v>2.560408427806465</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.4506667674023319</v>
+      </c>
+      <c r="P9">
+        <v>0.8894164588249112</v>
+      </c>
+      <c r="Q9">
+        <v>1.488064124269528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.346203352598934</v>
+        <v>2.849489824137663</v>
       </c>
       <c r="C10">
-        <v>0.4221438892856497</v>
+        <v>0.423140151317341</v>
       </c>
       <c r="D10">
-        <v>0.05764147758895888</v>
+        <v>0.1048444197183187</v>
       </c>
       <c r="E10">
-        <v>0.0398570194525929</v>
+        <v>0.06313854555282994</v>
       </c>
       <c r="F10">
-        <v>1.030084386638336</v>
+        <v>0.6764598405429325</v>
       </c>
       <c r="G10">
-        <v>0.0007972317882031809</v>
+        <v>0.441995179691304</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.000366779309970422</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.05629519992098109</v>
+        <v>0.3293063989202807</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.2858548173191195</v>
       </c>
       <c r="L10">
-        <v>0.2317458193385846</v>
+        <v>0.08513161128603297</v>
       </c>
       <c r="M10">
-        <v>0.5842036547023355</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.7833732283515715</v>
+        <v>0.2774622132945552</v>
       </c>
       <c r="O10">
-        <v>2.752596486612447</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.5259756447059445</v>
+      </c>
+      <c r="P10">
+        <v>0.8884193366360833</v>
+      </c>
+      <c r="Q10">
+        <v>1.575875455833057</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.587185765420543</v>
+        <v>2.973122493382903</v>
       </c>
       <c r="C11">
-        <v>0.4468398900318391</v>
+        <v>0.4665413382500674</v>
       </c>
       <c r="D11">
-        <v>0.05973931867534787</v>
+        <v>0.0956551381112547</v>
       </c>
       <c r="E11">
-        <v>0.03937211424494258</v>
+        <v>0.05793163122421641</v>
       </c>
       <c r="F11">
-        <v>1.065158512123361</v>
+        <v>0.6321131748041466</v>
       </c>
       <c r="G11">
-        <v>0.0007940624578113287</v>
+        <v>0.4144203977470369</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01895596434345848</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.05504486195161817</v>
+        <v>0.3118567840093505</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.2601338292044595</v>
       </c>
       <c r="L11">
-        <v>0.2448489171595725</v>
+        <v>0.09383135155586686</v>
       </c>
       <c r="M11">
-        <v>0.6250865787776192</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.7588233822261188</v>
+        <v>0.225420106013857</v>
       </c>
       <c r="O11">
-        <v>2.846880786475452</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.510480155403279</v>
+      </c>
+      <c r="P11">
+        <v>0.9363197237828018</v>
+      </c>
+      <c r="Q11">
+        <v>1.481059715461384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.67875011505464</v>
+        <v>2.983523680228245</v>
       </c>
       <c r="C12">
-        <v>0.4562019017207319</v>
+        <v>0.4931489945082319</v>
       </c>
       <c r="D12">
-        <v>0.06054055313401108</v>
+        <v>0.08678763787500543</v>
       </c>
       <c r="E12">
-        <v>0.03919443459098115</v>
+        <v>0.05606826252711572</v>
       </c>
       <c r="F12">
-        <v>1.078803134882961</v>
+        <v>0.5869417160395471</v>
       </c>
       <c r="G12">
-        <v>0.0007928734411180134</v>
+        <v>0.384339589693198</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05758979906691053</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.054578435738871</v>
+        <v>0.295313737158807</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.2398125228546455</v>
       </c>
       <c r="L12">
-        <v>0.2498427093485418</v>
+        <v>0.1065759203837509</v>
       </c>
       <c r="M12">
-        <v>0.6406290561105052</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.7497490412611896</v>
+        <v>0.1812683275532052</v>
       </c>
       <c r="O12">
-        <v>2.883652643098713</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.4816293030553638</v>
+      </c>
+      <c r="P12">
+        <v>0.9815908064709475</v>
+      </c>
+      <c r="Q12">
+        <v>1.382711342060219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.659015633160323</v>
+        <v>2.907263565133746</v>
       </c>
       <c r="C13">
-        <v>0.4541851191325748</v>
+        <v>0.5080891960284362</v>
       </c>
       <c r="D13">
-        <v>0.06036768237478896</v>
+        <v>0.07768670781513265</v>
       </c>
       <c r="E13">
-        <v>0.03923243436484913</v>
+        <v>0.05659251254864106</v>
       </c>
       <c r="F13">
-        <v>1.075847931503432</v>
+        <v>0.5384456899632113</v>
       </c>
       <c r="G13">
-        <v>0.0007931290308009623</v>
+        <v>0.3504904546768586</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1132426118717405</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.05467857391386666</v>
+        <v>0.2784305715149316</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.2223360848514346</v>
       </c>
       <c r="L13">
-        <v>0.2487657398429377</v>
+        <v>0.1228880201468812</v>
       </c>
       <c r="M13">
-        <v>0.6372788695956899</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.7516933098448675</v>
+        <v>0.1408378573818467</v>
       </c>
       <c r="O13">
-        <v>2.875684269684626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.4410498374318621</v>
+      </c>
+      <c r="P13">
+        <v>1.026287248587991</v>
+      </c>
+      <c r="Q13">
+        <v>1.275573939550071</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.594712367219188</v>
+        <v>2.814875796232513</v>
       </c>
       <c r="C14">
-        <v>0.4476098853564849</v>
+        <v>0.5132451108771079</v>
       </c>
       <c r="D14">
-        <v>0.05980509740026463</v>
+        <v>0.07132924982067834</v>
       </c>
       <c r="E14">
-        <v>0.03935737646299486</v>
+        <v>0.05836106426912124</v>
       </c>
       <c r="F14">
-        <v>1.066273629570148</v>
+        <v>0.5033893891086763</v>
       </c>
       <c r="G14">
-        <v>0.0007939644167151691</v>
+        <v>0.3253578193893105</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1625082364137569</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.0550063469553459</v>
+        <v>0.2665683586847081</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.2115847919631264</v>
       </c>
       <c r="L14">
-        <v>0.2452591026959823</v>
+        <v>0.1365270323056365</v>
       </c>
       <c r="M14">
-        <v>0.6263640011480831</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.7580723165072811</v>
+        <v>0.11521493811874</v>
       </c>
       <c r="O14">
-        <v>2.849884122563822</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.4076442258658801</v>
+      </c>
+      <c r="P14">
+        <v>1.05738323161296</v>
+      </c>
+      <c r="Q14">
+        <v>1.197396035702212</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.555366355365948</v>
+        <v>2.774238443055538</v>
       </c>
       <c r="C15">
-        <v>0.4435837883293345</v>
+        <v>0.5118224450854711</v>
       </c>
       <c r="D15">
-        <v>0.05946139982233944</v>
+        <v>0.06968521771580072</v>
       </c>
       <c r="E15">
-        <v>0.03943468553142981</v>
+        <v>0.05893405898127035</v>
       </c>
       <c r="F15">
-        <v>1.060457181623832</v>
+        <v>0.4941399939243922</v>
       </c>
       <c r="G15">
-        <v>0.0007944775485358449</v>
+        <v>0.3184477026083101</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1749820555500747</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.05520803829942533</v>
+        <v>0.2636296234174083</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.2094929209478238</v>
       </c>
       <c r="L15">
-        <v>0.2431154313985502</v>
+        <v>0.1397631763857916</v>
       </c>
       <c r="M15">
-        <v>0.6196865005880881</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.7620088931247864</v>
+        <v>0.1091047848982285</v>
       </c>
       <c r="O15">
-        <v>2.834222478470252</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.3970667344028271</v>
+      </c>
+      <c r="P15">
+        <v>1.0640425463301</v>
+      </c>
+      <c r="Q15">
+        <v>1.176559112185927</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.33049557329349</v>
+        <v>2.603225625682967</v>
       </c>
       <c r="C16">
-        <v>0.4205311921720636</v>
+        <v>0.4854145068522371</v>
       </c>
       <c r="D16">
-        <v>0.05750531092857614</v>
+        <v>0.06852504080850252</v>
       </c>
       <c r="E16">
-        <v>0.0398895328190525</v>
+        <v>0.05834089893371086</v>
       </c>
       <c r="F16">
-        <v>1.027841457481387</v>
+        <v>0.4875343131996033</v>
       </c>
       <c r="G16">
-        <v>0.0007974405009276447</v>
+        <v>0.3111436737070434</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1620808371995111</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.0563778938130981</v>
+        <v>0.2633912335985684</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.2142595996017498</v>
       </c>
       <c r="L16">
-        <v>0.2308938127729476</v>
+        <v>0.1344688213671432</v>
       </c>
       <c r="M16">
-        <v>0.5815399835345119</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.7850081248715668</v>
+        <v>0.1066254373575646</v>
       </c>
       <c r="O16">
-        <v>2.746579675506126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.3740054162414097</v>
+      </c>
+      <c r="P16">
+        <v>1.051985872472727</v>
+      </c>
+      <c r="Q16">
+        <v>1.160383840384839</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.193050670333264</v>
+        <v>2.521244209992062</v>
       </c>
       <c r="C17">
-        <v>0.4064038130310337</v>
+        <v>0.462498357137008</v>
       </c>
       <c r="D17">
-        <v>0.05631702238462566</v>
+        <v>0.07093981413824935</v>
       </c>
       <c r="E17">
-        <v>0.04017899641965084</v>
+        <v>0.05673748534350853</v>
       </c>
       <c r="F17">
-        <v>1.008449328681664</v>
+        <v>0.501054750350356</v>
       </c>
       <c r="G17">
-        <v>0.0007992786153011577</v>
+        <v>0.3189048049857774</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1242394952202659</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.05710801848893921</v>
+        <v>0.2695506387172415</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.2236377994799739</v>
       </c>
       <c r="L17">
-        <v>0.2234500683606768</v>
+        <v>0.1227778864241884</v>
       </c>
       <c r="M17">
-        <v>0.5582389606021891</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.7995017786214618</v>
+        <v>0.1176376942379065</v>
       </c>
       <c r="O17">
-        <v>2.694626676209822</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.3738670423334938</v>
+      </c>
+      <c r="P17">
+        <v>1.026561983603855</v>
+      </c>
+      <c r="Q17">
+        <v>1.189618652293916</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.114168835597638</v>
+        <v>2.50577384314397</v>
       </c>
       <c r="C18">
-        <v>0.3982824958340245</v>
+        <v>0.4403704883245041</v>
       </c>
       <c r="D18">
-        <v>0.05563772197761807</v>
+        <v>0.07697456517524159</v>
       </c>
       <c r="E18">
-        <v>0.04034927534172272</v>
+        <v>0.05538916000881011</v>
       </c>
       <c r="F18">
-        <v>0.9975134561507275</v>
+        <v>0.5338010346965021</v>
       </c>
       <c r="G18">
-        <v>0.0008003435353269041</v>
+        <v>0.3406797580194052</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07141029085054384</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.05753251518548241</v>
+        <v>0.2819263158370191</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.2384143086139936</v>
       </c>
       <c r="L18">
-        <v>0.2191875164576231</v>
+        <v>0.1070685822451267</v>
       </c>
       <c r="M18">
-        <v>0.5448714835952799</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8079761072500773</v>
+        <v>0.1444424360391494</v>
       </c>
       <c r="O18">
-        <v>2.665384821760938</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.3936926580917799</v>
+      </c>
+      <c r="P18">
+        <v>0.9885686474772228</v>
+      </c>
+      <c r="Q18">
+        <v>1.261634794886362</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.087489276171198</v>
+        <v>2.544439648053071</v>
       </c>
       <c r="C19">
-        <v>0.3955334170534002</v>
+        <v>0.4209685808170605</v>
       </c>
       <c r="D19">
-        <v>0.05540842693121562</v>
+        <v>0.08593815364648094</v>
       </c>
       <c r="E19">
-        <v>0.04040757505941883</v>
+        <v>0.05626165510091508</v>
       </c>
       <c r="F19">
-        <v>0.9938473973779907</v>
+        <v>0.5806681457567038</v>
       </c>
       <c r="G19">
-        <v>0.0008007054350646587</v>
+        <v>0.372780910216008</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.02619056462379632</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.05767702091997418</v>
+        <v>0.2986177217807438</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.2572013467595333</v>
       </c>
       <c r="L19">
-        <v>0.2177474526631755</v>
+        <v>0.09331692431502603</v>
       </c>
       <c r="M19">
-        <v>0.5403512230672973</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8108687599024265</v>
+        <v>0.1865786320669471</v>
       </c>
       <c r="O19">
-        <v>2.655591561466565</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.4287884274986808</v>
+      </c>
+      <c r="P19">
+        <v>0.9457171993660154</v>
+      </c>
+      <c r="Q19">
+        <v>1.364631111584089</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.207663736857171</v>
+        <v>2.734530388367432</v>
       </c>
       <c r="C20">
-        <v>0.4079072214924224</v>
+        <v>0.4094041109272837</v>
       </c>
       <c r="D20">
-        <v>0.05644308307279999</v>
+        <v>0.1028204230043173</v>
       </c>
       <c r="E20">
-        <v>0.04014778955947129</v>
+        <v>0.06287548252029396</v>
       </c>
       <c r="F20">
-        <v>1.010490904549457</v>
+        <v>0.6657047775330156</v>
       </c>
       <c r="G20">
-        <v>0.000799082153371544</v>
+        <v>0.4328778985989885</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.0001884412425954274</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.05702982408813462</v>
+        <v>0.3268825113989777</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.2864590407007839</v>
       </c>
       <c r="L20">
-        <v>0.2242404927103223</v>
+        <v>0.08434857264220952</v>
       </c>
       <c r="M20">
-        <v>0.5607157562245106</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.7979445529836511</v>
+        <v>0.2699260147852414</v>
       </c>
       <c r="O20">
-        <v>2.700090331921814</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.5059655381568717</v>
+      </c>
+      <c r="P20">
+        <v>0.8885963855802572</v>
+      </c>
+      <c r="Q20">
+        <v>1.551353478733773</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.613591048251294</v>
+        <v>3.082707474201754</v>
       </c>
       <c r="C21">
-        <v>0.4495408881900573</v>
+        <v>0.4464487232026499</v>
       </c>
       <c r="D21">
-        <v>0.05997015349297641</v>
+        <v>0.1108876274394461</v>
       </c>
       <c r="E21">
-        <v>0.03932051544786219</v>
+        <v>0.06488619584237565</v>
       </c>
       <c r="F21">
-        <v>1.069075761282832</v>
+        <v>0.7081234522972863</v>
       </c>
       <c r="G21">
-        <v>0.000793718745760781</v>
+        <v>0.4671749727980625</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0005932153723626765</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.05490987998333319</v>
+        <v>0.3378182130385312</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.2891906502824959</v>
       </c>
       <c r="L21">
-        <v>0.2462881970440094</v>
+        <v>0.08612833336027048</v>
       </c>
       <c r="M21">
-        <v>0.629568245756154</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.7561925322522072</v>
+        <v>0.3032481862651935</v>
       </c>
       <c r="O21">
-        <v>2.857432567243762</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.5726779332428507</v>
+      </c>
+      <c r="P21">
+        <v>0.881324592782633</v>
+      </c>
+      <c r="Q21">
+        <v>1.647305373873849</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.880713829148647</v>
+        <v>3.306104135407793</v>
       </c>
       <c r="C22">
-        <v>0.4768118621219912</v>
+        <v>0.4717222797716261</v>
       </c>
       <c r="D22">
-        <v>0.06231530926874029</v>
+        <v>0.1154338376508051</v>
       </c>
       <c r="E22">
-        <v>0.03881455997784311</v>
+        <v>0.06575297029361504</v>
       </c>
       <c r="F22">
-        <v>1.109493149231383</v>
+        <v>0.7329862189142986</v>
       </c>
       <c r="G22">
-        <v>0.0007902781008006094</v>
+        <v>0.4877590193584211</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>0.001158764386143041</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.05356551108485252</v>
+        <v>0.3441141324029928</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.2899982956469493</v>
       </c>
       <c r="L22">
-        <v>0.2608852294935531</v>
+        <v>0.08743512345852089</v>
       </c>
       <c r="M22">
-        <v>0.6749267089205446</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.7302053864955056</v>
+        <v>0.3210255610438111</v>
       </c>
       <c r="O22">
-        <v>2.966535177280292</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0.6134005835200398</v>
+      </c>
+      <c r="P22">
+        <v>0.8798663355954233</v>
+      </c>
+      <c r="Q22">
+        <v>1.704342770669825</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.737963773899025</v>
+        <v>3.186854631208234</v>
       </c>
       <c r="C23">
-        <v>0.4622501307793812</v>
+        <v>0.4582353892776894</v>
       </c>
       <c r="D23">
-        <v>0.06105984943501852</v>
+        <v>0.1130041732458338</v>
       </c>
       <c r="E23">
-        <v>0.03908137159121061</v>
+        <v>0.06529014584801374</v>
       </c>
       <c r="F23">
-        <v>1.087717348661258</v>
+        <v>0.719634259064506</v>
       </c>
       <c r="G23">
-        <v>0.0007921087127172877</v>
+        <v>0.4767027729102153</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>0.000834650800870973</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.05427923024804837</v>
+        <v>0.3407134513732046</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.2895185946667311</v>
       </c>
       <c r="L23">
-        <v>0.2530763755750201</v>
+        <v>0.0867392747869058</v>
       </c>
       <c r="M23">
-        <v>0.6506825863660382</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.7439526300174464</v>
+        <v>0.3115345727942298</v>
       </c>
       <c r="O23">
-        <v>2.907702490044187</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.5916613513529967</v>
+      </c>
+      <c r="P23">
+        <v>0.880573777119011</v>
+      </c>
+      <c r="Q23">
+        <v>1.673668094979007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.201056745628932</v>
+        <v>2.735557879959288</v>
       </c>
       <c r="C24">
-        <v>0.4072275285787725</v>
+        <v>0.4071030254411028</v>
       </c>
       <c r="D24">
-        <v>0.05638607903576798</v>
+        <v>0.1038715488910427</v>
       </c>
       <c r="E24">
-        <v>0.0401618861610622</v>
+        <v>0.06354049390292005</v>
       </c>
       <c r="F24">
-        <v>1.009567246929862</v>
+        <v>0.6708186182084219</v>
       </c>
       <c r="G24">
-        <v>0.0007991709483543536</v>
+        <v>0.4363180322341265</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>8.04634787610059E-05</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.05706516102495485</v>
+        <v>0.3286989812160641</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.2887430668375899</v>
       </c>
       <c r="L24">
-        <v>0.2238830892567023</v>
+        <v>0.08406662198493819</v>
       </c>
       <c r="M24">
-        <v>0.5595959084155169</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.7986481340007572</v>
+        <v>0.2756450006236548</v>
       </c>
       <c r="O24">
-        <v>2.697618267562746</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.5094205000530678</v>
+      </c>
+      <c r="P24">
+        <v>0.8847765781806842</v>
+      </c>
+      <c r="Q24">
+        <v>1.562446658177009</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.628380226898628</v>
+        <v>2.249104200089448</v>
       </c>
       <c r="C25">
-        <v>0.3480333384989933</v>
+        <v>0.3517931278358475</v>
       </c>
       <c r="D25">
-        <v>0.0515027198944793</v>
+        <v>0.09415402286992958</v>
       </c>
       <c r="E25">
-        <v>0.04147167745633684</v>
+        <v>0.06165157881318706</v>
       </c>
       <c r="F25">
-        <v>0.9335087940859523</v>
+        <v>0.6215793324341163</v>
       </c>
       <c r="G25">
-        <v>0.0008070844833060856</v>
+        <v>0.3956196273513797</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.0001806915105440066</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.06024380556611053</v>
+        <v>0.3174464569106732</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.2899633240271875</v>
       </c>
       <c r="L25">
-        <v>0.1931060032433791</v>
+        <v>0.08109285660218202</v>
       </c>
       <c r="M25">
-        <v>0.4626436961945544</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8628847434586078</v>
+        <v>0.2370096056125846</v>
       </c>
       <c r="O25">
-        <v>2.495196959795493</v>
+        <v>0.4208362382239059</v>
+      </c>
+      <c r="P25">
+        <v>0.8923622912866378</v>
+      </c>
+      <c r="Q25">
+        <v>1.452089859832967</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_7_22/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_7_22/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.890788476579274</v>
+        <v>1.84926217003499</v>
       </c>
       <c r="C2">
-        <v>0.3108879363779806</v>
+        <v>0.3194686368014601</v>
       </c>
       <c r="D2">
-        <v>0.08709847825992512</v>
+        <v>0.08762958144759381</v>
       </c>
       <c r="E2">
-        <v>0.06025112973471369</v>
+        <v>0.05882433782949281</v>
       </c>
       <c r="F2">
-        <v>0.5879441529592881</v>
+        <v>0.5648549915689358</v>
       </c>
       <c r="G2">
-        <v>0.3678091000095947</v>
+        <v>0.3297067389737762</v>
       </c>
       <c r="H2">
-        <v>0.0009475137448032855</v>
+        <v>0.0007820627617377562</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.3104943610289865</v>
+        <v>0.3356234569810113</v>
       </c>
       <c r="K2">
-        <v>0.2924718419866714</v>
+        <v>0.2714997990561692</v>
       </c>
       <c r="L2">
-        <v>0.07881414567535394</v>
+        <v>0.1465529628674282</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.06648021857200348</v>
       </c>
       <c r="N2">
-        <v>0.2085827796676583</v>
+        <v>0.07708752890548354</v>
       </c>
       <c r="O2">
-        <v>0.3556379850910076</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.9003832306666482</v>
+        <v>0.2200144669757407</v>
       </c>
       <c r="Q2">
-        <v>1.378168971363252</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.3535713742162372</v>
+      </c>
+      <c r="R2">
+        <v>0.9050298268258885</v>
+      </c>
+      <c r="S2">
+        <v>1.313131144628642</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.647671499176596</v>
+        <v>1.616058442010541</v>
       </c>
       <c r="C3">
-        <v>0.2830328486142406</v>
+        <v>0.2859879982716649</v>
       </c>
       <c r="D3">
-        <v>0.08237183890037159</v>
+        <v>0.08295018771242724</v>
       </c>
       <c r="E3">
-        <v>0.05929219319604329</v>
+        <v>0.05805282294659353</v>
       </c>
       <c r="F3">
-        <v>0.5666342154821677</v>
+        <v>0.5459951805735628</v>
       </c>
       <c r="G3">
-        <v>0.3501628253106972</v>
+        <v>0.3149562787038604</v>
       </c>
       <c r="H3">
-        <v>0.001855468417086614</v>
+        <v>0.001551984452718647</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3065513559824424</v>
+        <v>0.3303640483422541</v>
       </c>
       <c r="K3">
-        <v>0.2951014325815251</v>
+        <v>0.2750240110270603</v>
       </c>
       <c r="L3">
-        <v>0.07720915440220288</v>
+        <v>0.1514876478713383</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.06540531950996353</v>
       </c>
       <c r="N3">
-        <v>0.1893090868373051</v>
+        <v>0.07545650434646589</v>
       </c>
       <c r="O3">
-        <v>0.3114318345151048</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.9072502965613012</v>
+        <v>0.1997400365010336</v>
       </c>
       <c r="Q3">
-        <v>1.332210839578678</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.3098197496838395</v>
+      </c>
+      <c r="R3">
+        <v>0.9053695225298952</v>
+      </c>
+      <c r="S3">
+        <v>1.273801253529854</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.49820118458166</v>
+        <v>1.472419145368349</v>
       </c>
       <c r="C4">
-        <v>0.2658582314143274</v>
+        <v>0.2654418475628262</v>
       </c>
       <c r="D4">
-        <v>0.07949465389449273</v>
+        <v>0.08010866246568327</v>
       </c>
       <c r="E4">
-        <v>0.0586973677776097</v>
+        <v>0.05757377661673768</v>
       </c>
       <c r="F4">
-        <v>0.55423584673931</v>
+        <v>0.5349758305212333</v>
       </c>
       <c r="G4">
-        <v>0.3398757400015953</v>
+        <v>0.3064251133645897</v>
       </c>
       <c r="H4">
-        <v>0.00259051243068037</v>
+        <v>0.002178123776262586</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3044897419953969</v>
+        <v>0.3273096669001205</v>
       </c>
       <c r="K4">
-        <v>0.2971509848040341</v>
+        <v>0.2775256664877368</v>
       </c>
       <c r="L4">
-        <v>0.07619217700951353</v>
+        <v>0.1546938026889677</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.06533087970644402</v>
       </c>
       <c r="N4">
-        <v>0.1774643963780349</v>
+        <v>0.07442729059303588</v>
       </c>
       <c r="O4">
-        <v>0.2842681887671645</v>
+        <v>0</v>
       </c>
       <c r="P4">
-        <v>0.9121453220881719</v>
+        <v>0.1873137190053384</v>
       </c>
       <c r="Q4">
-        <v>1.30589784446569</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.2829136367726406</v>
+      </c>
+      <c r="R4">
+        <v>0.9062969688412394</v>
+      </c>
+      <c r="S4">
+        <v>1.25116990548878</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.437235027428983</v>
+        <v>1.413767117745437</v>
       </c>
       <c r="C5">
-        <v>0.2588408009327878</v>
+        <v>0.2570712212763908</v>
       </c>
       <c r="D5">
-        <v>0.07832818473637815</v>
+        <v>0.07895842346794524</v>
       </c>
       <c r="E5">
-        <v>0.05845328931522253</v>
+        <v>0.05737708283087617</v>
       </c>
       <c r="F5">
-        <v>0.5493494049088383</v>
+        <v>0.5306207838514041</v>
       </c>
       <c r="G5">
-        <v>0.335815132038455</v>
+        <v>0.3030742642053283</v>
       </c>
       <c r="H5">
-        <v>0.002932685130361989</v>
+        <v>0.002470137360652935</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3037372218650773</v>
+        <v>0.3261076287771303</v>
       </c>
       <c r="K5">
-        <v>0.2980922055988593</v>
+        <v>0.2786273851489049</v>
       </c>
       <c r="L5">
-        <v>0.07576960827265378</v>
+        <v>0.1560446165542224</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.06544601319475518</v>
       </c>
       <c r="N5">
-        <v>0.1726341230799662</v>
+        <v>0.0740007023033229</v>
       </c>
       <c r="O5">
-        <v>0.2731922444086656</v>
+        <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9143068660363483</v>
+        <v>0.1822547942405279</v>
       </c>
       <c r="Q5">
-        <v>1.2956350959996</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.2719375473435122</v>
+      </c>
+      <c r="R5">
+        <v>0.9068523324947648</v>
+      </c>
+      <c r="S5">
+        <v>1.242312954730821</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.427108089722168</v>
+        <v>1.404020755308892</v>
       </c>
       <c r="C6">
-        <v>0.2576744183586044</v>
+        <v>0.2556813929776922</v>
       </c>
       <c r="D6">
-        <v>0.07813484839795848</v>
+        <v>0.07876788545770097</v>
       </c>
       <c r="E6">
-        <v>0.05841265397472561</v>
+        <v>0.0573443287620794</v>
       </c>
       <c r="F6">
-        <v>0.5485478548299554</v>
+        <v>0.5299056525233965</v>
       </c>
       <c r="G6">
-        <v>0.3351486319144925</v>
+        <v>0.3025252621856396</v>
       </c>
       <c r="H6">
-        <v>0.002992020059472023</v>
+        <v>0.002520802694610358</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3036174785270873</v>
+        <v>0.3259105689132582</v>
       </c>
       <c r="K6">
-        <v>0.2982548012102839</v>
+        <v>0.2788152175575966</v>
       </c>
       <c r="L6">
-        <v>0.07569894303288205</v>
+        <v>0.1562715916507464</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.06547386664076349</v>
       </c>
       <c r="N6">
-        <v>0.1718318276887416</v>
+        <v>0.07392942871499297</v>
       </c>
       <c r="O6">
-        <v>0.2713526615393285</v>
+        <v>0</v>
       </c>
       <c r="P6">
-        <v>0.914675752475361</v>
+        <v>0.1814150399629995</v>
       </c>
       <c r="Q6">
-        <v>1.293958212077243</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.2701142470774798</v>
+      </c>
+      <c r="R6">
+        <v>0.9069551715352446</v>
+      </c>
+      <c r="S6">
+        <v>1.240863882173912</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.497379207970539</v>
+        <v>1.470663514955305</v>
       </c>
       <c r="C7">
-        <v>0.2657636681727098</v>
+        <v>0.2649141906393027</v>
       </c>
       <c r="D7">
-        <v>0.07947889851702428</v>
+        <v>0.08019861153010766</v>
       </c>
       <c r="E7">
-        <v>0.05869408307469648</v>
+        <v>0.0575809543630772</v>
       </c>
       <c r="F7">
-        <v>0.5541692827988527</v>
+        <v>0.534241046603718</v>
       </c>
       <c r="G7">
-        <v>0.3398204530684907</v>
+        <v>0.3091012819820449</v>
       </c>
       <c r="H7">
-        <v>0.002594957074061488</v>
+        <v>0.002185225638164479</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3044792421234988</v>
+        <v>0.323342066773229</v>
       </c>
       <c r="K7">
-        <v>0.2971632535617417</v>
+        <v>0.2772694614688831</v>
       </c>
       <c r="L7">
-        <v>0.07618651135141352</v>
+        <v>0.1545695688615325</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.06526778472500361</v>
       </c>
       <c r="N7">
-        <v>0.1773992686965187</v>
+        <v>0.07440874204340009</v>
       </c>
       <c r="O7">
-        <v>0.2841188428172785</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>0.9121738031025757</v>
+        <v>0.1871979803854487</v>
       </c>
       <c r="Q7">
-        <v>1.305757599647222</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.2826082596108819</v>
+      </c>
+      <c r="R7">
+        <v>0.906710257714046</v>
+      </c>
+      <c r="S7">
+        <v>1.248893047822648</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.806998108663407</v>
+        <v>1.7657089557174</v>
       </c>
       <c r="C8">
-        <v>0.301297913753146</v>
+        <v>0.3065215991760653</v>
       </c>
       <c r="D8">
-        <v>0.0854633738524484</v>
+        <v>0.08636408160731435</v>
       </c>
       <c r="E8">
-        <v>0.05992163937599493</v>
+        <v>0.05859352744109447</v>
       </c>
       <c r="F8">
-        <v>0.5804501026322129</v>
+        <v>0.5559923781718439</v>
       </c>
       <c r="G8">
-        <v>0.3616071071866713</v>
+        <v>0.3336250224527006</v>
       </c>
       <c r="H8">
-        <v>0.001222496158186814</v>
+        <v>0.001021629551633318</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3090585152650647</v>
+        <v>0.3208862826484449</v>
       </c>
       <c r="K8">
-        <v>0.2932861846300128</v>
+        <v>0.2717571841246027</v>
       </c>
       <c r="L8">
-        <v>0.07826714856633288</v>
+        <v>0.1477980083935364</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.0657313989605548</v>
       </c>
       <c r="N8">
-        <v>0.2019388983416093</v>
+        <v>0.07649035555205863</v>
       </c>
       <c r="O8">
-        <v>0.3403992270039993</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.9026077661816103</v>
+        <v>0.2128608973373076</v>
       </c>
       <c r="Q8">
-        <v>1.361915366323657</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.3379656086358338</v>
+      </c>
+      <c r="R8">
+        <v>0.9064170421870088</v>
+      </c>
+      <c r="S8">
+        <v>1.292101191115336</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.412961485251515</v>
+        <v>2.344458758470012</v>
       </c>
       <c r="C9">
-        <v>0.3704495029094801</v>
+        <v>0.3897427042927291</v>
       </c>
       <c r="D9">
-        <v>0.0974109599046642</v>
+        <v>0.09833334702033625</v>
       </c>
       <c r="E9">
-        <v>0.06228883196544466</v>
+        <v>0.06050714554438485</v>
       </c>
       <c r="F9">
-        <v>0.6377381713656831</v>
+        <v>0.6058114689657756</v>
       </c>
       <c r="G9">
-        <v>0.4089742989471148</v>
+        <v>0.3761851365389219</v>
       </c>
       <c r="H9">
-        <v>3.323703079560758E-05</v>
+        <v>2.351449777426851E-05</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3210210886561242</v>
+        <v>0.3315163618969237</v>
       </c>
       <c r="K9">
-        <v>0.2892918748691393</v>
+        <v>0.2647358832600304</v>
       </c>
       <c r="L9">
-        <v>0.08210771612341183</v>
+        <v>0.1364411434721298</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.07159986013738262</v>
       </c>
       <c r="N9">
-        <v>0.2500179041663984</v>
+        <v>0.08040773586962313</v>
       </c>
       <c r="O9">
-        <v>0.4506667674023319</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.8894164588249112</v>
+        <v>0.2635704728493948</v>
       </c>
       <c r="Q9">
-        <v>1.488064124269528</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.4468078624482743</v>
+      </c>
+      <c r="R9">
+        <v>0.9102316700937862</v>
+      </c>
+      <c r="S9">
+        <v>1.397456623993776</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.849489824137663</v>
+        <v>2.754744926127898</v>
       </c>
       <c r="C10">
-        <v>0.423140151317341</v>
+        <v>0.450304439925759</v>
       </c>
       <c r="D10">
-        <v>0.1048444197183187</v>
+        <v>0.1064235781257352</v>
       </c>
       <c r="E10">
-        <v>0.06313854555282994</v>
+        <v>0.06114586607215511</v>
       </c>
       <c r="F10">
-        <v>0.6764598405429325</v>
+        <v>0.635032575978137</v>
       </c>
       <c r="G10">
-        <v>0.441995179691304</v>
+        <v>0.4225022142039876</v>
       </c>
       <c r="H10">
-        <v>0.000366779309970422</v>
+        <v>0.0003490831629253677</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.3293063989202807</v>
+        <v>0.3167617901611024</v>
       </c>
       <c r="K10">
-        <v>0.2858548173191195</v>
+        <v>0.2575109891210872</v>
       </c>
       <c r="L10">
-        <v>0.08513161128603297</v>
+        <v>0.1275399954958409</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.07731535469291373</v>
       </c>
       <c r="N10">
-        <v>0.2774622132945552</v>
+        <v>0.0835878037991673</v>
       </c>
       <c r="O10">
-        <v>0.5259756447059445</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.8884193366360833</v>
+        <v>0.2924615079599846</v>
       </c>
       <c r="Q10">
-        <v>1.575875455833057</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.5200558194576885</v>
+      </c>
+      <c r="R10">
+        <v>0.9247381254736666</v>
+      </c>
+      <c r="S10">
+        <v>1.456990284261138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.973122493382903</v>
+        <v>2.865251039207635</v>
       </c>
       <c r="C11">
-        <v>0.4665413382500674</v>
+        <v>0.4898210183206686</v>
       </c>
       <c r="D11">
-        <v>0.0956551381112547</v>
+        <v>0.09825110271689397</v>
       </c>
       <c r="E11">
-        <v>0.05793163122421641</v>
+        <v>0.05630246358925994</v>
       </c>
       <c r="F11">
-        <v>0.6321131748041466</v>
+        <v>0.5854011907542613</v>
       </c>
       <c r="G11">
-        <v>0.4144203977470369</v>
+        <v>0.4325300645655403</v>
       </c>
       <c r="H11">
-        <v>0.01895596434345848</v>
+        <v>0.01891787886487606</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.3118567840093505</v>
+        <v>0.2622483470124095</v>
       </c>
       <c r="K11">
-        <v>0.2601338292044595</v>
+        <v>0.2318902623918113</v>
       </c>
       <c r="L11">
-        <v>0.09383135155586686</v>
+        <v>0.1160129480484837</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.07084463819278142</v>
       </c>
       <c r="N11">
-        <v>0.225420106013857</v>
+        <v>0.09342431755651148</v>
       </c>
       <c r="O11">
-        <v>0.510480155403279</v>
+        <v>0</v>
       </c>
       <c r="P11">
-        <v>0.9363197237828018</v>
+        <v>0.2376868694017418</v>
       </c>
       <c r="Q11">
-        <v>1.481059715461384</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.5027076299259292</v>
+      </c>
+      <c r="R11">
+        <v>0.9857776176105091</v>
+      </c>
+      <c r="S11">
+        <v>1.343749821020708</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.983523680228245</v>
+        <v>2.874011553079981</v>
       </c>
       <c r="C12">
-        <v>0.4931489945082319</v>
+        <v>0.5126425056993753</v>
       </c>
       <c r="D12">
-        <v>0.08678763787500543</v>
+        <v>0.08960674477753372</v>
       </c>
       <c r="E12">
-        <v>0.05606826252711572</v>
+        <v>0.05462368901547343</v>
       </c>
       <c r="F12">
-        <v>0.5869417160395471</v>
+        <v>0.5405760814614453</v>
       </c>
       <c r="G12">
-        <v>0.384339589693198</v>
+        <v>0.4198980322504866</v>
       </c>
       <c r="H12">
-        <v>0.05758979906691053</v>
+        <v>0.05755063684249251</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.295313737158807</v>
+        <v>0.235012794775443</v>
       </c>
       <c r="K12">
-        <v>0.2398125228546455</v>
+        <v>0.2135652083821427</v>
       </c>
       <c r="L12">
-        <v>0.1065759203837509</v>
+        <v>0.1090459376221897</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.06448791112568841</v>
       </c>
       <c r="N12">
-        <v>0.1812683275532052</v>
+        <v>0.1069778766763037</v>
       </c>
       <c r="O12">
-        <v>0.4816293030553638</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>0.9815908064709475</v>
+        <v>0.1912717633186816</v>
       </c>
       <c r="Q12">
-        <v>1.382711342060219</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.4733904996837168</v>
+      </c>
+      <c r="R12">
+        <v>1.037226313363561</v>
+      </c>
+      <c r="S12">
+        <v>1.244678830631358</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.907263565133746</v>
+        <v>2.807521739792264</v>
       </c>
       <c r="C13">
-        <v>0.5080891960284362</v>
+        <v>0.5250475716496794</v>
       </c>
       <c r="D13">
-        <v>0.07768670781513265</v>
+        <v>0.07999317899282232</v>
       </c>
       <c r="E13">
-        <v>0.05659251254864106</v>
+        <v>0.05530322381633557</v>
       </c>
       <c r="F13">
-        <v>0.5384456899632113</v>
+        <v>0.4978239270697955</v>
       </c>
       <c r="G13">
-        <v>0.3504904546768586</v>
+        <v>0.3821549559306305</v>
       </c>
       <c r="H13">
-        <v>0.1132426118717405</v>
+        <v>0.1132178822927727</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2784305715149316</v>
+        <v>0.2279238568529038</v>
       </c>
       <c r="K13">
-        <v>0.2223360848514346</v>
+        <v>0.1998515602468238</v>
       </c>
       <c r="L13">
-        <v>0.1228880201468812</v>
+        <v>0.104723911257663</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.05820184566003839</v>
       </c>
       <c r="N13">
-        <v>0.1408378573818467</v>
+        <v>0.1239278975456202</v>
       </c>
       <c r="O13">
-        <v>0.4410498374318621</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>1.026287248587991</v>
+        <v>0.1488870860717526</v>
       </c>
       <c r="Q13">
-        <v>1.275573939550071</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.4337008377016645</v>
+      </c>
+      <c r="R13">
+        <v>1.080670058075071</v>
+      </c>
+      <c r="S13">
+        <v>1.153944067684705</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.814875796232513</v>
+        <v>2.726886753146175</v>
       </c>
       <c r="C14">
-        <v>0.5132451108771079</v>
+        <v>0.5290068549816169</v>
       </c>
       <c r="D14">
-        <v>0.07132924982067834</v>
+        <v>0.0730345617252226</v>
       </c>
       <c r="E14">
-        <v>0.05836106426912124</v>
+        <v>0.05721410481470368</v>
       </c>
       <c r="F14">
-        <v>0.5033893891086763</v>
+        <v>0.4687926157262581</v>
       </c>
       <c r="G14">
-        <v>0.3253578193893105</v>
+        <v>0.3460309178799861</v>
       </c>
       <c r="H14">
-        <v>0.1625082364137569</v>
+        <v>0.1624958709157198</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2665683586847081</v>
+        <v>0.2305017330308345</v>
       </c>
       <c r="K14">
-        <v>0.2115847919631264</v>
+        <v>0.1922712127698833</v>
       </c>
       <c r="L14">
-        <v>0.1365270323056365</v>
+        <v>0.1027204194440934</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.05396710596344967</v>
       </c>
       <c r="N14">
-        <v>0.11521493811874</v>
+        <v>0.1379197483729229</v>
       </c>
       <c r="O14">
-        <v>0.4076442258658801</v>
+        <v>0</v>
       </c>
       <c r="P14">
-        <v>1.05738323161296</v>
+        <v>0.122047292244801</v>
       </c>
       <c r="Q14">
-        <v>1.197396035702212</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.4014478602622944</v>
+      </c>
+      <c r="R14">
+        <v>1.107191026819663</v>
+      </c>
+      <c r="S14">
+        <v>1.093737639384926</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.774238443055538</v>
+        <v>2.691246253841314</v>
       </c>
       <c r="C15">
-        <v>0.5118224450854711</v>
+        <v>0.5275402107975253</v>
       </c>
       <c r="D15">
-        <v>0.06968521771580072</v>
+        <v>0.07114700139138819</v>
       </c>
       <c r="E15">
-        <v>0.05893405898127035</v>
+        <v>0.05784821451629618</v>
       </c>
       <c r="F15">
-        <v>0.4941399939243922</v>
+        <v>0.4618760057603382</v>
       </c>
       <c r="G15">
-        <v>0.3184477026083101</v>
+        <v>0.3331118055726137</v>
       </c>
       <c r="H15">
-        <v>0.1749820555500747</v>
+        <v>0.1749741966765868</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.2636296234174083</v>
+        <v>0.2344443044729303</v>
       </c>
       <c r="K15">
-        <v>0.2094929209478238</v>
+        <v>0.1911947025202601</v>
       </c>
       <c r="L15">
-        <v>0.1397631763857916</v>
+        <v>0.1026381018979823</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.05295693987766548</v>
       </c>
       <c r="N15">
-        <v>0.1091047848982285</v>
+        <v>0.141223753758247</v>
       </c>
       <c r="O15">
-        <v>0.3970667344028271</v>
+        <v>0</v>
       </c>
       <c r="P15">
-        <v>1.0640425463301</v>
+        <v>0.1156735806635112</v>
       </c>
       <c r="Q15">
-        <v>1.176559112185927</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.3913775442777876</v>
+      </c>
+      <c r="R15">
+        <v>1.111171679667819</v>
+      </c>
+      <c r="S15">
+        <v>1.080067048028269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.603225625682967</v>
+        <v>2.538507246094866</v>
       </c>
       <c r="C16">
-        <v>0.4854145068522371</v>
+        <v>0.5027082592484362</v>
       </c>
       <c r="D16">
-        <v>0.06852504080850252</v>
+        <v>0.06914931331908747</v>
       </c>
       <c r="E16">
-        <v>0.05834089893371086</v>
+        <v>0.05745850390894702</v>
       </c>
       <c r="F16">
-        <v>0.4875343131996033</v>
+        <v>0.462796741742693</v>
       </c>
       <c r="G16">
-        <v>0.3111436737070434</v>
+        <v>0.2985379877834973</v>
       </c>
       <c r="H16">
-        <v>0.1620808371995111</v>
+        <v>0.1620804440477599</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2633912335985684</v>
+        <v>0.2647698267016736</v>
       </c>
       <c r="K16">
-        <v>0.2142595996017498</v>
+        <v>0.1981816868263451</v>
       </c>
       <c r="L16">
-        <v>0.1344688213671432</v>
+        <v>0.1065635077247968</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.05293363172575027</v>
       </c>
       <c r="N16">
-        <v>0.1066254373575646</v>
+        <v>0.1358095002838837</v>
       </c>
       <c r="O16">
-        <v>0.3740054162414097</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>1.051985872472727</v>
+        <v>0.1133803805164888</v>
       </c>
       <c r="Q16">
-        <v>1.160383840384839</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.3702534365774994</v>
+      </c>
+      <c r="R16">
+        <v>1.086215893262832</v>
+      </c>
+      <c r="S16">
+        <v>1.087973811380351</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.521244209992062</v>
+        <v>2.462699856047664</v>
       </c>
       <c r="C17">
-        <v>0.462498357137008</v>
+        <v>0.4807726450268319</v>
       </c>
       <c r="D17">
-        <v>0.07093981413824935</v>
+        <v>0.07128987458786185</v>
       </c>
       <c r="E17">
-        <v>0.05673748534350853</v>
+        <v>0.05585665694849329</v>
       </c>
       <c r="F17">
-        <v>0.501054750350356</v>
+        <v>0.4783510264529198</v>
       </c>
       <c r="G17">
-        <v>0.3189048049857774</v>
+        <v>0.2944166395850516</v>
       </c>
       <c r="H17">
-        <v>0.1242394952202659</v>
+        <v>0.1242323032778643</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.2695506387172415</v>
+        <v>0.2846000094484111</v>
       </c>
       <c r="K17">
-        <v>0.2236377994799739</v>
+        <v>0.2075183343251883</v>
       </c>
       <c r="L17">
-        <v>0.1227778864241884</v>
+        <v>0.1108926589916219</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.05497272940386999</v>
       </c>
       <c r="N17">
-        <v>0.1176376942379065</v>
+        <v>0.1238186780131585</v>
       </c>
       <c r="O17">
-        <v>0.3738670423334938</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>1.026561983603855</v>
+        <v>0.1251295264986041</v>
       </c>
       <c r="Q17">
-        <v>1.189618652293916</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.3708163361430437</v>
+      </c>
+      <c r="R17">
+        <v>1.054897531132625</v>
+      </c>
+      <c r="S17">
+        <v>1.124218963407245</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.50577384314397</v>
+        <v>2.446189402049924</v>
       </c>
       <c r="C18">
-        <v>0.4403704883245041</v>
+        <v>0.4602203927707365</v>
       </c>
       <c r="D18">
-        <v>0.07697456517524159</v>
+        <v>0.07729459857698373</v>
       </c>
       <c r="E18">
-        <v>0.05538916000881011</v>
+        <v>0.05433853082428142</v>
       </c>
       <c r="F18">
-        <v>0.5338010346965021</v>
+        <v>0.509963766923974</v>
       </c>
       <c r="G18">
-        <v>0.3406797580194052</v>
+        <v>0.309493502268495</v>
       </c>
       <c r="H18">
-        <v>0.07141029085054384</v>
+        <v>0.0713996652410529</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.2819263158370191</v>
+        <v>0.3022602997264912</v>
       </c>
       <c r="K18">
-        <v>0.2384143086139936</v>
+        <v>0.2207176169990817</v>
       </c>
       <c r="L18">
-        <v>0.1070685822451267</v>
+        <v>0.1164003306332742</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.05913985473264383</v>
       </c>
       <c r="N18">
-        <v>0.1444424360391494</v>
+        <v>0.1076014807544112</v>
       </c>
       <c r="O18">
-        <v>0.3936926580917799</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.9885686474772228</v>
+        <v>0.1533673537099318</v>
       </c>
       <c r="Q18">
-        <v>1.261634794886362</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.3907124587765765</v>
+      </c>
+      <c r="R18">
+        <v>1.014631171500838</v>
+      </c>
+      <c r="S18">
+        <v>1.193662347922228</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.544439648053071</v>
+        <v>2.479059448409089</v>
       </c>
       <c r="C19">
-        <v>0.4209685808170605</v>
+        <v>0.443083171439099</v>
       </c>
       <c r="D19">
-        <v>0.08593815364648094</v>
+        <v>0.08636675845131236</v>
       </c>
       <c r="E19">
-        <v>0.05626165510091508</v>
+        <v>0.05490095645371706</v>
       </c>
       <c r="F19">
-        <v>0.5806681457567038</v>
+        <v>0.553597981353299</v>
       </c>
       <c r="G19">
-        <v>0.372780910216008</v>
+        <v>0.3371755459005215</v>
       </c>
       <c r="H19">
-        <v>0.02619056462379632</v>
+        <v>0.02618473181676961</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.2986177217807438</v>
+        <v>0.3194122006014766</v>
       </c>
       <c r="K19">
-        <v>0.2572013467595333</v>
+        <v>0.2368271523868444</v>
       </c>
       <c r="L19">
-        <v>0.09331692431502603</v>
+        <v>0.1227002076920378</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.06500216664091951</v>
       </c>
       <c r="N19">
-        <v>0.1865786320669471</v>
+        <v>0.09312068491393077</v>
       </c>
       <c r="O19">
-        <v>0.4287884274986808</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.9457171993660154</v>
+        <v>0.1975602233228955</v>
       </c>
       <c r="Q19">
-        <v>1.364631111584089</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.4254828997630327</v>
+      </c>
+      <c r="R19">
+        <v>0.9715743244512964</v>
+      </c>
+      <c r="S19">
+        <v>1.28787438672714</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.734530388367432</v>
+        <v>2.65041400833735</v>
       </c>
       <c r="C20">
-        <v>0.4094041109272837</v>
+        <v>0.4360409420792735</v>
       </c>
       <c r="D20">
-        <v>0.1028204230043173</v>
+        <v>0.1038308088833162</v>
       </c>
       <c r="E20">
-        <v>0.06287548252029396</v>
+        <v>0.06090187084874454</v>
       </c>
       <c r="F20">
-        <v>0.6657047775330156</v>
+        <v>0.6292564416927746</v>
       </c>
       <c r="G20">
-        <v>0.4328778985989885</v>
+        <v>0.3997685583357651</v>
       </c>
       <c r="H20">
-        <v>0.0001884412425954274</v>
+        <v>0.0001857278682750874</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.3268825113989777</v>
+        <v>0.3335115027678199</v>
       </c>
       <c r="K20">
-        <v>0.2864590407007839</v>
+        <v>0.2600873405615971</v>
       </c>
       <c r="L20">
-        <v>0.08434857264220952</v>
+        <v>0.130089365951287</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.07595822415592224</v>
       </c>
       <c r="N20">
-        <v>0.2699260147852414</v>
+        <v>0.08280665368553031</v>
       </c>
       <c r="O20">
-        <v>0.5059655381568717</v>
+        <v>0</v>
       </c>
       <c r="P20">
-        <v>0.8885963855802572</v>
+        <v>0.2846940747506608</v>
       </c>
       <c r="Q20">
-        <v>1.551353478733773</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.5011857015896695</v>
+      </c>
+      <c r="R20">
+        <v>0.9190968528855024</v>
+      </c>
+      <c r="S20">
+        <v>1.447793459768235</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.082707474201754</v>
+        <v>2.957166185031326</v>
       </c>
       <c r="C21">
-        <v>0.4464487232026499</v>
+        <v>0.4714049446854744</v>
       </c>
       <c r="D21">
-        <v>0.1108876274394461</v>
+        <v>0.1146151523789456</v>
       </c>
       <c r="E21">
-        <v>0.06488619584237565</v>
+        <v>0.0629028857060403</v>
       </c>
       <c r="F21">
-        <v>0.7081234522972863</v>
+        <v>0.6503030591267702</v>
       </c>
       <c r="G21">
-        <v>0.4671749727980625</v>
+        <v>0.5002685886975087</v>
       </c>
       <c r="H21">
-        <v>0.0005932153723626765</v>
+        <v>0.0005043045364179211</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.3378182130385312</v>
+        <v>0.2642240887400931</v>
       </c>
       <c r="K21">
-        <v>0.2891906502824959</v>
+        <v>0.2540700670044131</v>
       </c>
       <c r="L21">
-        <v>0.08612833336027048</v>
+        <v>0.1232710368464556</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.08074309054138595</v>
       </c>
       <c r="N21">
-        <v>0.3032481862651935</v>
+        <v>0.08429574087784175</v>
       </c>
       <c r="O21">
-        <v>0.5726779332428507</v>
+        <v>0</v>
       </c>
       <c r="P21">
-        <v>0.881324592782633</v>
+        <v>0.3188038085007179</v>
       </c>
       <c r="Q21">
-        <v>1.647305373873849</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.5630020642208677</v>
+      </c>
+      <c r="R21">
+        <v>0.9330048467803778</v>
+      </c>
+      <c r="S21">
+        <v>1.477779713743502</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.306104135407793</v>
+        <v>3.151763526227796</v>
       </c>
       <c r="C22">
-        <v>0.4717222797716261</v>
+        <v>0.4947227355544612</v>
       </c>
       <c r="D22">
-        <v>0.1154338376508051</v>
+        <v>0.1211987664555281</v>
       </c>
       <c r="E22">
-        <v>0.06575297029361504</v>
+        <v>0.06384170232026953</v>
       </c>
       <c r="F22">
-        <v>0.7329862189142986</v>
+        <v>0.6601562898674658</v>
       </c>
       <c r="G22">
-        <v>0.4877590193584211</v>
+        <v>0.573270930548901</v>
       </c>
       <c r="H22">
-        <v>0.001158764386143041</v>
+        <v>0.0009637590219496728</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.3441141324029928</v>
+        <v>0.2234936655585358</v>
       </c>
       <c r="K22">
-        <v>0.2899982956469493</v>
+        <v>0.2488804398587483</v>
       </c>
       <c r="L22">
-        <v>0.08743512345852089</v>
+        <v>0.1185457637125609</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.08362207801999588</v>
       </c>
       <c r="N22">
-        <v>0.3210255610438111</v>
+        <v>0.08549325052413526</v>
       </c>
       <c r="O22">
-        <v>0.6134005835200398</v>
+        <v>0</v>
       </c>
       <c r="P22">
-        <v>0.8798663355954233</v>
+        <v>0.3368544659409594</v>
       </c>
       <c r="Q22">
-        <v>1.704342770669825</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0.6002038735600408</v>
+      </c>
+      <c r="R22">
+        <v>0.9466610794062262</v>
+      </c>
+      <c r="S22">
+        <v>1.4884352843643</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.186854631208234</v>
+        <v>3.050641979261627</v>
       </c>
       <c r="C23">
-        <v>0.4582353892776894</v>
+        <v>0.4834390528054371</v>
       </c>
       <c r="D23">
-        <v>0.1130041732458338</v>
+        <v>0.117361565301195</v>
       </c>
       <c r="E23">
-        <v>0.06529014584801374</v>
+        <v>0.06330084230638899</v>
       </c>
       <c r="F23">
-        <v>0.719634259064506</v>
+        <v>0.6566495105056802</v>
       </c>
       <c r="G23">
-        <v>0.4767027729102153</v>
+        <v>0.5253733087817096</v>
       </c>
       <c r="H23">
-        <v>0.000834650800870973</v>
+        <v>0.0007042149064954151</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.3407134513732046</v>
+        <v>0.2512787552455933</v>
       </c>
       <c r="K23">
-        <v>0.2895185946667311</v>
+        <v>0.2522993697164964</v>
       </c>
       <c r="L23">
-        <v>0.0867392747869058</v>
+        <v>0.1212638251067304</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.08234326699817274</v>
       </c>
       <c r="N23">
-        <v>0.3115345727942298</v>
+        <v>0.0848779030093727</v>
       </c>
       <c r="O23">
-        <v>0.5916613513529967</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>0.880573777119011</v>
+        <v>0.3273445315693522</v>
       </c>
       <c r="Q23">
-        <v>1.673668094979007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.5807962676809311</v>
+      </c>
+      <c r="R23">
+        <v>0.9379257325489192</v>
+      </c>
+      <c r="S23">
+        <v>1.488299473562904</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.735557879959288</v>
+        <v>2.651095919342652</v>
       </c>
       <c r="C24">
-        <v>0.4071030254411028</v>
+        <v>0.4339311638381389</v>
       </c>
       <c r="D24">
-        <v>0.1038715488910427</v>
+        <v>0.1048815166984269</v>
       </c>
       <c r="E24">
-        <v>0.06354049390292005</v>
+        <v>0.06152361691033104</v>
       </c>
       <c r="F24">
-        <v>0.6708186182084219</v>
+        <v>0.6341093915303944</v>
       </c>
       <c r="G24">
-        <v>0.4363180322341265</v>
+        <v>0.4023459033562631</v>
       </c>
       <c r="H24">
-        <v>8.04634787610059E-05</v>
+        <v>7.756193595831462E-05</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.3286989812160641</v>
+        <v>0.335874318440375</v>
       </c>
       <c r="K24">
-        <v>0.2887430668375899</v>
+        <v>0.2620902979506674</v>
       </c>
       <c r="L24">
-        <v>0.08406662198493819</v>
+        <v>0.1309072631450707</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.0766371346417003</v>
       </c>
       <c r="N24">
-        <v>0.2756450006236548</v>
+        <v>0.08241246438895811</v>
       </c>
       <c r="O24">
-        <v>0.5094205000530678</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>0.8847765781806842</v>
+        <v>0.2906720386692001</v>
       </c>
       <c r="Q24">
-        <v>1.562446658177009</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.5046300642141404</v>
+      </c>
+      <c r="R24">
+        <v>0.9149937563339421</v>
+      </c>
+      <c r="S24">
+        <v>1.458236250560219</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.249104200089448</v>
+        <v>2.189612901762644</v>
       </c>
       <c r="C25">
-        <v>0.3517931278358475</v>
+        <v>0.367821212380619</v>
       </c>
       <c r="D25">
-        <v>0.09415402286992958</v>
+        <v>0.09491088056914521</v>
       </c>
       <c r="E25">
-        <v>0.06165157881318706</v>
+        <v>0.05997692174244929</v>
       </c>
       <c r="F25">
-        <v>0.6215793324341163</v>
+        <v>0.59275213848764</v>
       </c>
       <c r="G25">
-        <v>0.3956196273513797</v>
+        <v>0.3601990710080543</v>
       </c>
       <c r="H25">
-        <v>0.0001806915105440066</v>
+        <v>0.0001423617267231059</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.3174464569106732</v>
+        <v>0.333911972392464</v>
       </c>
       <c r="K25">
-        <v>0.2899633240271875</v>
+        <v>0.2666917689654227</v>
       </c>
       <c r="L25">
-        <v>0.08109285660218202</v>
+        <v>0.1395187385229484</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.06962330908019787</v>
       </c>
       <c r="N25">
-        <v>0.2370096056125846</v>
+        <v>0.07938556598559998</v>
       </c>
       <c r="O25">
-        <v>0.4208362382239059</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>0.8923622912866378</v>
+        <v>0.249891826501738</v>
       </c>
       <c r="Q25">
-        <v>1.452089859832967</v>
+        <v>0.417614904023516</v>
+      </c>
+      <c r="R25">
+        <v>0.907904572855216</v>
+      </c>
+      <c r="S25">
+        <v>1.37053674404774</v>
       </c>
     </row>
   </sheetData>
